--- a/ShipmentInfo-GoDeliverNCR.xlsx
+++ b/ShipmentInfo-GoDeliverNCR.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\GKCouriers\GIT\mage-bera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Products\CargoTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5822DA-1AB2-4E2E-8708-66C954C6EEAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShipmentInformation" sheetId="1" r:id="rId1"/>
+    <sheet name="Masters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Consignment No</t>
   </si>
@@ -176,36 +178,15 @@
     <t>27-03-2018 12:30</t>
   </si>
   <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Vellore</t>
   </si>
   <si>
-    <t>magesh2522@gmail.com</t>
-  </si>
-  <si>
     <t>No 9 Kothandavar Kovil st Edayansathu Vellore</t>
   </si>
   <si>
-    <t>Pugazhanthi</t>
-  </si>
-  <si>
-    <t>Lodhi Colony Delhi</t>
-  </si>
-  <si>
-    <t>godeliverncr@gmail.com</t>
-  </si>
-  <si>
     <t>Kalaiyarasan G</t>
   </si>
   <si>
-    <t xml:space="preserve"> Magesh K</t>
-  </si>
-  <si>
     <t>kalaiyarasange@gmail.com</t>
   </si>
   <si>
@@ -219,15 +200,42 @@
   </si>
   <si>
     <t>mageshk@bosch.com</t>
+  </si>
+  <si>
+    <t>Consignee Name</t>
+  </si>
+  <si>
+    <t>Consignee Phone No</t>
+  </si>
+  <si>
+    <t>Consignee Address</t>
+  </si>
+  <si>
+    <t>Consignee City</t>
+  </si>
+  <si>
+    <t>Consignee PinCode</t>
+  </si>
+  <si>
+    <t>Consignee EmailId</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>+91 9443776790</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>test18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy\ h:mm;@"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,26 +356,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -648,113 +689,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O2" sqref="O2"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
-    <col min="14" max="14" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="12" customWidth="1"/>
-    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="16" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="16" customWidth="1"/>
+    <col min="16" max="16" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="11" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="11" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="11" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" style="11" customWidth="1"/>
+    <col min="26" max="26" width="7" style="11" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="16" customWidth="1"/>
+    <col min="31" max="31" width="23.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="20.28515625" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:32" s="8" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="11" t="s">
+      <c r="I1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="S1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="T1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="U1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -772,277 +814,296 @@
       <c r="Z1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AA1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AB1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AC1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AD1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:41" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:32" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="16">
+        <v>632002</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="16">
+        <v>9629313798</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="16">
+        <v>560068</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" s="11">
+        <v>1.2</v>
+      </c>
+      <c r="W2" s="11">
+        <v>1.234</v>
+      </c>
+      <c r="AD2" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2">
-        <v>9629313798</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2">
-        <v>632002</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2">
-        <v>9500302626</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2">
-        <v>738384</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P2" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AO2" s="10" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:41" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3">
-        <v>9443776790</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3">
-        <v>632002</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3">
-        <v>9629313798</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3">
-        <v>560068</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN3" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AK4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO4" s="9"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AK5" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN5" s="9"/>
-      <c r="AO5" s="9"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q1048576">
-      <formula1>$AK$2:$AK$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576">
-      <formula1>$AL$2:$AL$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576">
-      <formula1>$AM$2:$AM$8</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 U1:U1048576">
-      <formula1>$AN$2:$AN$4</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="N2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="N3" r:id="rId4"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Masters!$G$2:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q1:Q1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Masters!$H$2:$H$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>R1:R1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Masters!$I$2:$I$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>S1:S1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>Masters!$J$2:$J$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:U1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>Masters!$L$2:$L$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>AD1:AD1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>Masters!$K$2:$K$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>AF1:AF1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="G1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="7:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="7:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="7:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G4" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="7:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ShipmentInfo-GoDeliverNCR.xlsx
+++ b/ShipmentInfo-GoDeliverNCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Products\CargoTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E5822DA-1AB2-4E2E-8708-66C954C6EEAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B60369-5A70-484E-A5E3-311E8E7BEB0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,9 +172,6 @@
     <t>FEDEX</t>
   </si>
   <si>
-    <t>25-03-2018 12:30</t>
-  </si>
-  <si>
     <t>27-03-2018 12:30</t>
   </si>
   <si>
@@ -229,7 +226,10 @@
     <t>test123</t>
   </si>
   <si>
-    <t>test18</t>
+    <t>09-06-2019 12:30</t>
+  </si>
+  <si>
+    <t>test24</t>
   </si>
 </sst>
 </file>
@@ -694,8 +694,8 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D5" sqref="D5"/>
+      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,22 +761,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>8</v>
@@ -841,46 +841,46 @@
         <v>67</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" s="16">
         <v>632002</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J2" s="16">
         <v>9629313798</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="16">
         <v>560068</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O2" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>26</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF2" s="1" t="s">
         <v>46</v>
@@ -1000,7 +1000,7 @@
         <v>25</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="7:12" ht="30" x14ac:dyDescent="0.25">

--- a/ShipmentInfo-GoDeliverNCR.xlsx
+++ b/ShipmentInfo-GoDeliverNCR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Products\CargoTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B60369-5A70-484E-A5E3-311E8E7BEB0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF6AE6-F0E6-4193-AE00-39A6A4B7BCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="101">
   <si>
     <t>Consignment No</t>
   </si>
@@ -230,6 +230,105 @@
   </si>
   <si>
     <t>test24</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>Dadra and Nagar Haveli</t>
+  </si>
+  <si>
+    <t>Daman and Diu</t>
+  </si>
+  <si>
+    <t>Goa</t>
+  </si>
+  <si>
+    <t>Gujarat</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>Himachal Pradesh</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Jharkhand</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Lakshadweep</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>Meghalaya</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>Nagaland</t>
+  </si>
+  <si>
+    <t>Odisha</t>
+  </si>
+  <si>
+    <t>Puducherry</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Uttarakhand</t>
+  </si>
+  <si>
+    <t>West Bengal</t>
   </si>
 </sst>
 </file>
@@ -283,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -351,12 +450,132 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -382,9 +601,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -409,6 +625,33 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -694,8 +937,8 @@
   <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K9" sqref="K9"/>
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,33 +946,33 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="18.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="16" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="15" customWidth="1"/>
     <col min="14" max="14" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7109375" style="16" customWidth="1"/>
-    <col min="16" max="16" width="22" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" style="15" customWidth="1"/>
+    <col min="16" max="16" width="22" style="15" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="11" customWidth="1"/>
-    <col min="23" max="23" width="11.140625" style="11" customWidth="1"/>
-    <col min="24" max="24" width="8.28515625" style="11" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" style="11" customWidth="1"/>
-    <col min="26" max="26" width="7" style="11" customWidth="1"/>
-    <col min="27" max="27" width="8.42578125" style="12" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="11.140625" style="10" customWidth="1"/>
+    <col min="24" max="24" width="8.28515625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="7.28515625" style="10" customWidth="1"/>
+    <col min="26" max="26" width="7" style="10" customWidth="1"/>
+    <col min="27" max="27" width="8.42578125" style="11" customWidth="1"/>
     <col min="28" max="28" width="11.42578125" style="1" customWidth="1"/>
     <col min="29" max="29" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.140625" style="16" customWidth="1"/>
+    <col min="30" max="30" width="9.140625" style="15" customWidth="1"/>
     <col min="31" max="31" width="23.42578125" style="1" customWidth="1"/>
     <col min="32" max="32" width="20.28515625" style="1" customWidth="1"/>
     <col min="33" max="16384" width="9.140625" style="1"/>
@@ -745,7 +988,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -754,7 +997,7 @@
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -763,7 +1006,7 @@
       <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -772,16 +1015,16 @@
       <c r="L1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="14" t="s">
         <v>61</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -823,7 +1066,7 @@
       <c r="AC1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="16" t="s">
         <v>23</v>
       </c>
       <c r="AE1" s="4" t="s">
@@ -843,7 +1086,7 @@
       <c r="C2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -852,16 +1095,16 @@
       <c r="F2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="15">
         <v>632002</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="15">
         <v>9629313798</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -870,16 +1113,16 @@
       <c r="L2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="15">
         <v>560068</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>48</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -897,13 +1140,13 @@
       <c r="U2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="V2" s="11">
+      <c r="V2" s="10">
         <v>1.2</v>
       </c>
-      <c r="W2" s="11">
+      <c r="W2" s="10">
         <v>1.234</v>
       </c>
-      <c r="AD2" s="16" t="b">
+      <c r="AD2" s="15" t="b">
         <v>1</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -922,7 +1165,7 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Masters!$G$2:$G$5</xm:f>
@@ -943,9 +1186,9 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
-            <xm:f>Masters!$J$2:$J$4</xm:f>
+            <xm:f>Masters!$J$2:$J$37</xm:f>
           </x14:formula1>
-          <xm:sqref>T1:U1048576</xm:sqref>
+          <xm:sqref>U1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
@@ -959,6 +1202,12 @@
           </x14:formula1>
           <xm:sqref>AF1:AF1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{776F0B2F-DDFE-48DA-B3BB-D3F7D6EC469E}">
+          <x14:formula1>
+            <xm:f>Masters!$J$2:$J$37</xm:f>
+          </x14:formula1>
+          <xm:sqref>T1:T1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -967,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="G1:L8"/>
+  <dimension ref="G1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,130 +1227,428 @@
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="7:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G1" s="9" t="s">
+    <row r="1" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="22" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="7:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G2" s="13" t="s">
+    <row r="2" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G5" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G6" s="23"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="25"/>
+    </row>
+    <row r="7" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G7" s="23"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="25"/>
+    </row>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="23"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="25"/>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="26"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="26"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="19"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="26"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="19"/>
+      <c r="L11" s="27"/>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="26"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="19"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="26"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="19"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="26"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="19"/>
+      <c r="L14" s="27"/>
+    </row>
+    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="26"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="19"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="26"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="19"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="26"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="19"/>
+      <c r="L17" s="27"/>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="26"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="27"/>
+    </row>
+    <row r="19" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G19" s="26"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="27"/>
+    </row>
+    <row r="20" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G20" s="26"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="27"/>
+    </row>
+    <row r="21" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G21" s="26"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="27"/>
+    </row>
+    <row r="22" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G22" s="26"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="27"/>
+    </row>
+    <row r="23" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G23" s="26"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="27"/>
+    </row>
+    <row r="24" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G24" s="26"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="27"/>
+    </row>
+    <row r="25" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G25" s="26"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G26" s="26"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="19"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G27" s="26"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="K27" s="19"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G28" s="26"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="K28" s="19"/>
+      <c r="L28" s="27"/>
+    </row>
+    <row r="29" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G29" s="26"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="19"/>
+      <c r="L29" s="27"/>
+    </row>
+    <row r="30" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G30" s="26"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K30" s="19"/>
+      <c r="L30" s="27"/>
+    </row>
+    <row r="31" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G31" s="26"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K31" s="19"/>
+      <c r="L31" s="27"/>
+    </row>
+    <row r="32" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G32" s="26"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="7:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="7:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
-    <row r="5" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G5" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="7:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-    </row>
-    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="27"/>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="26"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="19"/>
+      <c r="L33" s="27"/>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="26"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" s="19"/>
+      <c r="L34" s="27"/>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="26"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="19"/>
+      <c r="L35" s="27"/>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="26"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="27"/>
+    </row>
+    <row r="37" spans="7:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="28"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="29"/>
+      <c r="L37" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ShipmentInfo-GoDeliverNCR.xlsx
+++ b/ShipmentInfo-GoDeliverNCR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Products\CargoTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACF6AE6-F0E6-4193-AE00-39A6A4B7BCB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B8BBA-68DB-4F24-BEEF-FC6311706E9F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShipmentInformation" sheetId="1" r:id="rId1"/>
@@ -229,9 +229,6 @@
     <t>09-06-2019 12:30</t>
   </si>
   <si>
-    <t>test24</t>
-  </si>
-  <si>
     <t>Andaman and Nicobar Islands</t>
   </si>
   <si>
@@ -329,6 +326,9 @@
   </si>
   <si>
     <t>West Bengal</t>
+  </si>
+  <si>
+    <t>testpugal</t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V4" sqref="V4"/>
+      <selection pane="topRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>51</v>
@@ -1165,7 +1165,7 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Masters!$G$2:$G$5</xm:f>
@@ -1188,7 +1188,7 @@
           <x14:formula1>
             <xm:f>Masters!$J$2:$J$37</xm:f>
           </x14:formula1>
-          <xm:sqref>U1:U1048576</xm:sqref>
+          <xm:sqref>T1:U1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
@@ -1202,12 +1202,6 @@
           </x14:formula1>
           <xm:sqref>AF1:AF1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{776F0B2F-DDFE-48DA-B3BB-D3F7D6EC469E}">
-          <x14:formula1>
-            <xm:f>Masters!$J$2:$J$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>T1:T1048576</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1218,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,7 +1257,7 @@
         <v>35</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>46</v>
@@ -1283,7 +1277,7 @@
         <v>36</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>47</v>
@@ -1303,7 +1297,7 @@
         <v>37</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K4" s="12"/>
       <c r="L4" s="25"/>
@@ -1319,7 +1313,7 @@
         <v>38</v>
       </c>
       <c r="J5" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="25"/>
@@ -1331,7 +1325,7 @@
         <v>39</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="25"/>
@@ -1343,7 +1337,7 @@
         <v>40</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="25"/>
@@ -1355,7 +1349,7 @@
         <v>41</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="25"/>
@@ -1365,7 +1359,7 @@
       <c r="H9" s="19"/>
       <c r="I9" s="19"/>
       <c r="J9" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K9" s="19"/>
       <c r="L9" s="27"/>
@@ -1375,7 +1369,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="19"/>
       <c r="L10" s="27"/>
@@ -1395,7 +1389,7 @@
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="27"/>
@@ -1405,7 +1399,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="19"/>
       <c r="J13" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="27"/>
@@ -1415,7 +1409,7 @@
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
       <c r="J14" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K14" s="19"/>
       <c r="L14" s="27"/>
@@ -1425,7 +1419,7 @@
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
       <c r="J15" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="27"/>
@@ -1435,7 +1429,7 @@
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="27"/>
@@ -1445,7 +1439,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="27"/>
@@ -1465,7 +1459,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K19" s="19"/>
       <c r="L19" s="27"/>
@@ -1475,7 +1469,7 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K20" s="19"/>
       <c r="L20" s="27"/>
@@ -1485,7 +1479,7 @@
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="19"/>
       <c r="L21" s="27"/>
@@ -1495,7 +1489,7 @@
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="27"/>
@@ -1505,7 +1499,7 @@
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K23" s="19"/>
       <c r="L23" s="27"/>
@@ -1515,7 +1509,7 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K24" s="19"/>
       <c r="L24" s="27"/>
@@ -1525,7 +1519,7 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="19"/>
       <c r="L25" s="27"/>
@@ -1535,7 +1529,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K26" s="19"/>
       <c r="L26" s="27"/>
@@ -1545,7 +1539,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K27" s="19"/>
       <c r="L27" s="27"/>
@@ -1555,7 +1549,7 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K28" s="19"/>
       <c r="L28" s="27"/>
@@ -1565,7 +1559,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K29" s="19"/>
       <c r="L29" s="27"/>
@@ -1575,7 +1569,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K30" s="19"/>
       <c r="L30" s="27"/>
@@ -1585,7 +1579,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K31" s="19"/>
       <c r="L31" s="27"/>
@@ -1605,7 +1599,7 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K33" s="19"/>
       <c r="L33" s="27"/>
@@ -1615,7 +1609,7 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K34" s="19"/>
       <c r="L34" s="27"/>
@@ -1625,7 +1619,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K35" s="19"/>
       <c r="L35" s="27"/>
@@ -1635,7 +1629,7 @@
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K36" s="19"/>
       <c r="L36" s="27"/>
@@ -1645,7 +1639,7 @@
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
       <c r="J37" s="30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K37" s="29"/>
       <c r="L37" s="31"/>
